--- a/predictions/confirmed/c2_train_predictions.xlsx
+++ b/predictions/confirmed/c2_train_predictions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\confirmed\predictions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\excel-prognozowanie\predictions\confirmed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9628,15 +9628,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9658,15 +9658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13705,8 +13705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="E298" sqref="E298"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
